--- a/data/output/FV2504_FV2410/QUOTES/15004.xlsx
+++ b/data/output/FV2504_FV2410/QUOTES/15004.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3059" uniqueCount="291">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3080" uniqueCount="291">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1005,6 +1005,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U139" totalsRowShown="0">
+  <autoFilter ref="A1:U139"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1294,7 +1324,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -7996,5 +8029,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/QUOTES/15004.xlsx
+++ b/data/output/FV2504_FV2410/QUOTES/15004.xlsx
@@ -1873,7 +1873,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="2" t="s">
+      <c r="M19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N19" s="2" t="s">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -3131,7 +3131,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="2" t="s">
+      <c r="M37" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N37" s="2" t="s">
@@ -4005,7 +4005,7 @@
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="2" t="s">
+      <c r="M44" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N44" s="2" t="s">
@@ -4309,7 +4309,7 @@
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -4447,7 +4447,7 @@
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="4"/>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -4599,7 +4599,7 @@
         <v>247</v>
       </c>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -5003,26 +5003,26 @@
       <c r="V63" s="5"/>
     </row>
     <row r="64" spans="1:22">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D64" s="5" t="s">
+      <c r="C64" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E64" s="5"/>
+      <c r="E64" s="2"/>
       <c r="F64" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5" t="s">
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2" t="s">
         <v>221</v>
       </c>
       <c r="K64" s="6" t="s">
@@ -5031,23 +5031,23 @@
       <c r="L64" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="M64" s="5" t="s">
+      <c r="M64" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N64" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O64" s="5" t="s">
+      <c r="N64" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O64" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P64" s="5"/>
+      <c r="P64" s="2"/>
       <c r="Q64" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
-      <c r="U64" s="5" t="s">
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+      <c r="U64" s="2" t="s">
         <v>221</v>
       </c>
       <c r="V64" s="6" t="s">
@@ -5247,7 +5247,7 @@
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -5447,7 +5447,7 @@
         <v>251</v>
       </c>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -5851,26 +5851,26 @@
       <c r="V79" s="5"/>
     </row>
     <row r="80" spans="1:22">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C80" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D80" s="5" t="s">
+      <c r="C80" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E80" s="5"/>
+      <c r="E80" s="2"/>
       <c r="F80" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5" t="s">
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2" t="s">
         <v>221</v>
       </c>
       <c r="K80" s="6" t="s">
@@ -5879,23 +5879,23 @@
       <c r="L80" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="M80" s="5" t="s">
+      <c r="M80" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N80" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O80" s="5" t="s">
+      <c r="N80" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O80" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P80" s="5"/>
+      <c r="P80" s="2"/>
       <c r="Q80" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="R80" s="5"/>
-      <c r="S80" s="5"/>
-      <c r="T80" s="5"/>
-      <c r="U80" s="5" t="s">
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2" t="s">
         <v>221</v>
       </c>
       <c r="V80" s="6" t="s">
@@ -6095,7 +6095,7 @@
       </c>
       <c r="K84" s="2"/>
       <c r="L84" s="4"/>
-      <c r="M84" s="2" t="s">
+      <c r="M84" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -6295,7 +6295,7 @@
         <v>253</v>
       </c>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -6699,26 +6699,26 @@
       <c r="V95" s="5"/>
     </row>
     <row r="96" spans="1:22">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C96" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D96" s="5" t="s">
+      <c r="C96" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E96" s="5"/>
+      <c r="E96" s="2"/>
       <c r="F96" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5" t="s">
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2" t="s">
         <v>221</v>
       </c>
       <c r="K96" s="6" t="s">
@@ -6727,23 +6727,23 @@
       <c r="L96" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="M96" s="5" t="s">
+      <c r="M96" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N96" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O96" s="5" t="s">
+      <c r="N96" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O96" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P96" s="5"/>
+      <c r="P96" s="2"/>
       <c r="Q96" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="R96" s="5"/>
-      <c r="S96" s="5"/>
-      <c r="T96" s="5"/>
-      <c r="U96" s="5" t="s">
+      <c r="R96" s="2"/>
+      <c r="S96" s="2"/>
+      <c r="T96" s="2"/>
+      <c r="U96" s="2" t="s">
         <v>221</v>
       </c>
       <c r="V96" s="6" t="s">
@@ -6945,7 +6945,7 @@
         <v>255</v>
       </c>
       <c r="L100" s="4"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N100" s="2" t="s">
@@ -7349,26 +7349,26 @@
       <c r="V107" s="5"/>
     </row>
     <row r="108" spans="1:22">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C108" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D108" s="5" t="s">
+      <c r="C108" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E108" s="5"/>
+      <c r="E108" s="2"/>
       <c r="F108" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="5"/>
-      <c r="J108" s="5" t="s">
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2" t="s">
         <v>221</v>
       </c>
       <c r="K108" s="6" t="s">
@@ -7377,23 +7377,23 @@
       <c r="L108" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="M108" s="5" t="s">
+      <c r="M108" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N108" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O108" s="5" t="s">
+      <c r="N108" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O108" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P108" s="5"/>
+      <c r="P108" s="2"/>
       <c r="Q108" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="R108" s="5"/>
-      <c r="S108" s="5"/>
-      <c r="T108" s="5"/>
-      <c r="U108" s="5" t="s">
+      <c r="R108" s="2"/>
+      <c r="S108" s="2"/>
+      <c r="T108" s="2"/>
+      <c r="U108" s="2" t="s">
         <v>221</v>
       </c>
       <c r="V108" s="6" t="s">
@@ -7595,7 +7595,7 @@
         <v>257</v>
       </c>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -7999,26 +7999,26 @@
       <c r="V119" s="5"/>
     </row>
     <row r="120" spans="1:22">
-      <c r="A120" s="5" t="s">
+      <c r="A120" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B120" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C120" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D120" s="5" t="s">
+      <c r="C120" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E120" s="5"/>
+      <c r="E120" s="2"/>
       <c r="F120" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
-      <c r="I120" s="5"/>
-      <c r="J120" s="5" t="s">
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2" t="s">
         <v>221</v>
       </c>
       <c r="K120" s="6" t="s">
@@ -8027,23 +8027,23 @@
       <c r="L120" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="M120" s="5" t="s">
+      <c r="M120" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N120" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O120" s="5" t="s">
+      <c r="N120" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O120" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P120" s="5"/>
+      <c r="P120" s="2"/>
       <c r="Q120" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="R120" s="5"/>
-      <c r="S120" s="5"/>
-      <c r="T120" s="5"/>
-      <c r="U120" s="5" t="s">
+      <c r="R120" s="2"/>
+      <c r="S120" s="2"/>
+      <c r="T120" s="2"/>
+      <c r="U120" s="2" t="s">
         <v>221</v>
       </c>
       <c r="V120" s="6" t="s">
@@ -8243,7 +8243,7 @@
       </c>
       <c r="K124" s="2"/>
       <c r="L124" s="4"/>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -8503,7 +8503,7 @@
         <v>259</v>
       </c>
       <c r="L129" s="4"/>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -8803,48 +8803,48 @@
       </c>
     </row>
     <row r="135" spans="1:22">
-      <c r="A135" s="5" t="s">
+      <c r="A135" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="B135" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5" t="s">
+      <c r="C135" s="2"/>
+      <c r="D135" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E135" s="5"/>
+      <c r="E135" s="2"/>
       <c r="F135" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G135" s="5"/>
-      <c r="H135" s="5"/>
-      <c r="I135" s="5"/>
-      <c r="J135" s="5" t="s">
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="K135" s="5"/>
+      <c r="K135" s="2"/>
       <c r="L135" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="M135" s="5" t="s">
+      <c r="M135" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N135" s="5"/>
-      <c r="O135" s="5" t="s">
+      <c r="N135" s="2"/>
+      <c r="O135" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P135" s="5"/>
+      <c r="P135" s="2"/>
       <c r="Q135" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="R135" s="5"/>
-      <c r="S135" s="5"/>
-      <c r="T135" s="5"/>
-      <c r="U135" s="5" t="s">
+      <c r="R135" s="2"/>
+      <c r="S135" s="2"/>
+      <c r="T135" s="2"/>
+      <c r="U135" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="V135" s="5"/>
+      <c r="V135" s="2"/>
     </row>
     <row r="136" spans="1:22">
       <c r="A136" s="5" t="s">
@@ -8899,48 +8899,48 @@
       <c r="V136" s="5"/>
     </row>
     <row r="137" spans="1:22">
-      <c r="A137" s="5" t="s">
+      <c r="A137" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B137" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5" t="s">
+      <c r="C137" s="2"/>
+      <c r="D137" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E137" s="5"/>
+      <c r="E137" s="2"/>
       <c r="F137" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G137" s="5"/>
-      <c r="H137" s="5"/>
-      <c r="I137" s="5"/>
-      <c r="J137" s="5" t="s">
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="K137" s="5"/>
+      <c r="K137" s="2"/>
       <c r="L137" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="M137" s="5" t="s">
+      <c r="M137" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N137" s="5"/>
-      <c r="O137" s="5" t="s">
+      <c r="N137" s="2"/>
+      <c r="O137" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P137" s="5"/>
+      <c r="P137" s="2"/>
       <c r="Q137" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="R137" s="5"/>
-      <c r="S137" s="5"/>
-      <c r="T137" s="5"/>
-      <c r="U137" s="5" t="s">
+      <c r="R137" s="2"/>
+      <c r="S137" s="2"/>
+      <c r="T137" s="2"/>
+      <c r="U137" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="V137" s="5"/>
+      <c r="V137" s="2"/>
     </row>
     <row r="138" spans="1:22">
       <c r="A138" s="5" t="s">
